--- a/fhir/IG/StructureDefinition-fhir-ru-condition-nu.xlsx
+++ b/fhir/IG/StructureDefinition-fhir-ru-condition-nu.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:15:12+03:00</t>
+    <t>2022-03-10T17:36:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/StructureDefinition-fhir-ru-condition-nu.xlsx
+++ b/fhir/IG/StructureDefinition-fhir-ru-condition-nu.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:36:05+03:00</t>
+    <t>2022-04-27T17:36:36+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -807,6 +807,9 @@
     <t>246090004</t>
   </si>
   <si>
+    <t>* Код (шифр) заболевания по справочнику МКБ-10|11</t>
+  </si>
+  <si>
     <t>Condition.code.id</t>
   </si>
   <si>
@@ -971,6 +974,37 @@
   </si>
   <si>
     <t>363698007</t>
+  </si>
+  <si>
+    <t>* Локализация заболевания/процесса/...</t>
+  </si>
+  <si>
+    <t>Condition.bodySite.id</t>
+  </si>
+  <si>
+    <t>Condition.bodySite.extension</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ru/fhir/Extension/fhir-ru-ext-condition-bodysite-laterality}
+</t>
+  </si>
+  <si>
+    <t>Сторона поражения</t>
+  </si>
+  <si>
+    <t>Сторона поражения.</t>
+  </si>
+  <si>
+    <t>* Сторона поражения</t>
+  </si>
+  <si>
+    <t>Condition.bodySite.coding</t>
+  </si>
+  <si>
+    <t>Condition.bodySite.text</t>
   </si>
   <si>
     <t>Condition.subject</t>
@@ -1628,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP55"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4324,12 +4358,12 @@
         <v>249</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4447,7 +4481,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4567,7 +4601,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4689,7 +4723,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4807,7 +4841,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4927,7 +4961,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4953,16 +4987,16 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4972,7 +5006,7 @@
         <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>74</v>
@@ -5011,7 +5045,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5032,10 +5066,10 @@
         <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -5049,7 +5083,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5075,13 +5109,13 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5131,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5152,10 +5186,10 @@
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5169,7 +5203,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5195,14 +5229,14 @@
         <v>105</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -5251,7 +5285,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5272,10 +5306,10 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5289,7 +5323,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5315,14 +5349,14 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5371,7 +5405,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5392,10 +5426,10 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5409,7 +5443,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5432,19 +5466,19 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5493,7 +5527,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5514,10 +5548,10 @@
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5531,7 +5565,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5653,7 +5687,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5679,13 +5713,13 @@
         <v>160</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5711,13 +5745,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5735,7 +5769,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5753,61 +5787,59 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>307</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5855,10 +5887,10 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5867,22 +5899,22 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>74</v>
@@ -5893,18 +5925,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5913,19 +5945,19 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5963,46 +5995,46 @@
         <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>178</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>74</v>
@@ -6011,11 +6043,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6027,26 +6061,24 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -6095,45 +6127,45 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6144,7 +6176,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -6153,21 +6185,23 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>325</v>
+        <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6215,16 +6249,16 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>97</v>
@@ -6236,13 +6270,13 @@
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>74</v>
@@ -6253,7 +6287,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6276,16 +6310,20 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>341</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6333,7 +6371,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6354,13 +6392,13 @@
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>203</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>204</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>74</v>
@@ -6369,23 +6407,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6394,16 +6432,18 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6451,10 +6491,10 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6466,19 +6506,19 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>74</v>
@@ -6489,7 +6529,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6512,15 +6552,17 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6569,7 +6611,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6584,19 +6626,19 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>74</v>
@@ -6605,9 +6647,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6618,27 +6660,29 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6687,34 +6731,34 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>74</v>
@@ -6725,7 +6769,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6748,15 +6792,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6805,7 +6851,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6814,10 +6860,10 @@
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -6829,10 +6875,10 @@
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>74</v>
@@ -6843,18 +6889,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6863,20 +6909,18 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6925,19 +6969,19 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>183</v>
+        <v>351</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
@@ -6946,13 +6990,13 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>74</v>
@@ -6963,43 +7007,39 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>130</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7047,19 +7087,19 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
@@ -7071,10 +7111,10 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>74</v>
@@ -7085,7 +7125,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7105,16 +7145,16 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7141,13 +7181,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -7165,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7174,7 +7214,7 @@
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>97</v>
@@ -7183,16 +7223,16 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>378</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>247</v>
+        <v>368</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>74</v>
@@ -7201,9 +7241,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7217,7 +7257,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7226,13 +7266,13 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7283,7 +7323,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7292,10 +7332,10 @@
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>374</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
@@ -7307,7 +7347,7 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -7319,9 +7359,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7335,7 +7375,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7344,13 +7384,13 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7377,11 +7417,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -7399,7 +7441,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>384</v>
+        <v>177</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7411,7 +7453,7 @@
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
@@ -7423,7 +7465,7 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>74</v>
@@ -7437,11 +7479,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7460,16 +7502,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>147</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7519,7 +7561,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>183</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7531,7 +7573,7 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>393</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -7543,7 +7585,7 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>394</v>
+        <v>178</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7557,39 +7599,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7637,19 +7683,19 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7661,7 +7707,7 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7675,18 +7721,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7698,17 +7744,15 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7733,13 +7777,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7757,31 +7801,31 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7795,11 +7839,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7812,26 +7856,22 @@
         <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7879,7 +7919,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7888,10 +7928,10 @@
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>74</v>
@@ -7903,7 +7943,7 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>128</v>
+        <v>394</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -7915,9 +7955,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7928,25 +7968,25 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>160</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7973,13 +8013,11 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7997,34 +8035,34 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>74</v>
@@ -8035,7 +8073,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8055,18 +8093,20 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -8115,7 +8155,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8124,10 +8164,10 @@
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>404</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>74</v>
@@ -8139,10 +8179,10 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>74</v>
@@ -8153,7 +8193,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8164,7 +8204,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -8176,13 +8216,13 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>412</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>175</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>176</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8233,44 +8273,640 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG55" t="s" s="2">
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI55" t="s" s="2">
+      <c r="AH58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AJ58" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AK58" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AN55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AP55" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP55">
+  <autoFilter ref="A1:AP60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8280,7 +8916,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
